--- a/Analisis de programacion/Trabajo de analisis.xlsx
+++ b/Analisis de programacion/Trabajo de analisis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC11\Desktop\numberPerfect\Analisis de programacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E51E2CD-B943-4836-B74F-1579C0AFFC55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F6828C-39DD-4F2C-B599-8C3D0B374F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{304ACAD7-2492-4B24-AB01-9B5FF1E8D717}"/>
   </bookViews>
@@ -19,6 +19,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -157,19 +167,17 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -192,9 +200,916 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9380</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11720</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6DB-44EB-9C7B-E81157802078}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1784102271"/>
+        <c:axId val="1784105631"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1784102271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784105631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1784105631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784102271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>661987</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4244444-EF71-7984-45DF-FDBFD75642B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}" name="Tabla1" displayName="Tabla1" ref="A1:G11" totalsRowShown="0">
   <autoFilter ref="A1:G11" xr:uid="{B4B7765F-7E73-4F3D-8A1E-E1F982B876D9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="G11"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4C9591D0-4EA4-4CF2-AABB-63A826F3CB01}" name="Valor"/>
     <tableColumn id="2" xr3:uid="{C9A11EFE-98EE-4E98-80C5-41052E80821B}" name="T1"/>
@@ -510,7 +1425,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G11" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,80 +1455,80 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>568</v>
-      </c>
-      <c r="B2" s="2">
-        <v>19600</v>
-      </c>
-      <c r="C2" s="2">
-        <v>21600</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5900</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5800</v>
-      </c>
-      <c r="F2" s="2">
-        <v>5700</v>
-      </c>
-      <c r="G2" s="2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>200</v>
+      </c>
+      <c r="C2" s="5">
+        <v>200</v>
+      </c>
+      <c r="D2" s="5">
+        <v>300</v>
+      </c>
+      <c r="E2" s="5">
+        <v>300</v>
+      </c>
+      <c r="F2" s="5">
+        <v>200</v>
+      </c>
+      <c r="G2" s="5">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>11720</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+        <v>240</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="D3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G3">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>740</v>
-      </c>
-      <c r="I3" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>500</v>
@@ -622,118 +1537,106 @@
         <v>600</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="F4">
         <v>500</v>
       </c>
       <c r="G4">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>520</v>
-      </c>
-      <c r="I4" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>8000</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>164500</v>
+        <v>700</v>
       </c>
       <c r="C5">
-        <v>75300</v>
+        <v>800</v>
       </c>
       <c r="D5">
-        <v>75200</v>
+        <v>700</v>
       </c>
       <c r="E5">
-        <v>78200</v>
+        <v>700</v>
       </c>
       <c r="F5">
-        <v>78000</v>
+        <v>800</v>
       </c>
       <c r="G5">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>94240</v>
-      </c>
-      <c r="I5" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>950</v>
+        <v>55</v>
       </c>
       <c r="B6">
-        <v>9300</v>
+        <v>1100</v>
       </c>
       <c r="C6">
-        <v>9400</v>
+        <v>1100</v>
       </c>
       <c r="D6">
-        <v>9400</v>
+        <v>1100</v>
       </c>
       <c r="E6">
-        <v>9400</v>
+        <v>1100</v>
       </c>
       <c r="F6">
-        <v>9400</v>
+        <v>1100</v>
       </c>
       <c r="G6">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>9380</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+        <v>1100</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>1100</v>
+        <v>1400</v>
       </c>
       <c r="C7">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="D7">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="E7">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="F7">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="G7">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>1100</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>1360</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -761,74 +1664,74 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>950</v>
       </c>
       <c r="B9">
-        <v>200</v>
+        <v>9300</v>
       </c>
       <c r="C9">
-        <v>200</v>
+        <v>9400</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>9400</v>
       </c>
       <c r="E9">
-        <v>300</v>
+        <v>9400</v>
       </c>
       <c r="F9">
-        <v>200</v>
+        <v>9400</v>
       </c>
       <c r="G9">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>240</v>
+        <v>9380</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>80</v>
-      </c>
-      <c r="B10">
-        <v>1400</v>
-      </c>
-      <c r="C10">
-        <v>1300</v>
-      </c>
-      <c r="D10">
-        <v>1500</v>
-      </c>
-      <c r="E10">
-        <v>1300</v>
-      </c>
-      <c r="F10">
-        <v>1300</v>
-      </c>
-      <c r="G10">
+      <c r="A10" s="4">
+        <v>568</v>
+      </c>
+      <c r="B10" s="4">
+        <v>19600</v>
+      </c>
+      <c r="C10" s="4">
+        <v>21600</v>
+      </c>
+      <c r="D10" s="4">
+        <v>5900</v>
+      </c>
+      <c r="E10" s="4">
+        <v>5800</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5700</v>
+      </c>
+      <c r="G10" s="4">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>1360</v>
+        <v>11720</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>8000</v>
       </c>
       <c r="B11">
-        <v>500</v>
+        <v>164500</v>
       </c>
       <c r="C11">
-        <v>600</v>
+        <v>75300</v>
       </c>
       <c r="D11">
-        <v>700</v>
+        <v>75200</v>
       </c>
       <c r="E11">
-        <v>600</v>
+        <v>78200</v>
       </c>
       <c r="F11">
-        <v>500</v>
+        <v>78000</v>
       </c>
       <c r="G11">
         <f>(Tabla1[[#This Row],[T1]]+Tabla1[[#This Row],[T2]]+Tabla1[[#This Row],[T3]]+Tabla1[[#This Row],[T4]]+Tabla1[[#This Row],[T5]])/5</f>
-        <v>580</v>
+        <v>94240</v>
       </c>
     </row>
   </sheetData>
@@ -841,8 +1744,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>